--- a/nutrients/Crop_Nutrients_WithSources.xlsx
+++ b/nutrients/Crop_Nutrients_WithSources.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="634">
   <si>
     <t>Comment</t>
   </si>
@@ -1949,9 +1949,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>OTHER</t>
   </si>
 </sst>
 </file>
@@ -2537,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5968,12 +5965,8 @@
       <c r="C174" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="D174" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="F174" s="13">
-        <v>1</v>
-      </c>
+      <c r="D174" s="24"/>
+      <c r="F174" s="13"/>
       <c r="G174" s="13"/>
       <c r="H174" s="12"/>
       <c r="I174" s="11" t="s">
